--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>7115.552061496085</v>
+        <v>10343.78756473366</v>
       </c>
       <c r="R2">
-        <v>7115.552061496085</v>
+        <v>93094.08808260292</v>
       </c>
       <c r="S2">
-        <v>0.03929945435967181</v>
+        <v>0.05094783517614514</v>
       </c>
       <c r="T2">
-        <v>0.03929945435967181</v>
+        <v>0.05094783517614516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>14117.2905910329</v>
+        <v>15891.19919674062</v>
       </c>
       <c r="R3">
-        <v>14117.2905910329</v>
+        <v>143020.7927706656</v>
       </c>
       <c r="S3">
-        <v>0.07797031241843962</v>
+        <v>0.07827134812659686</v>
       </c>
       <c r="T3">
-        <v>0.07797031241843962</v>
+        <v>0.07827134812659688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>6627.489203235039</v>
+        <v>7940.72113460693</v>
       </c>
       <c r="R4">
-        <v>6627.489203235039</v>
+        <v>71466.49021146237</v>
       </c>
       <c r="S4">
-        <v>0.03660386533760961</v>
+        <v>0.03911164542135522</v>
       </c>
       <c r="T4">
-        <v>0.03660386533760961</v>
+        <v>0.03911164542135522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>7438.798871713409</v>
+        <v>8334.629405459649</v>
       </c>
       <c r="R5">
-        <v>7438.798871713409</v>
+        <v>75011.66464913686</v>
       </c>
       <c r="S5">
-        <v>0.04108475831855737</v>
+        <v>0.04105182193139373</v>
       </c>
       <c r="T5">
-        <v>0.04108475831855737</v>
+        <v>0.04105182193139374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>5554.9233600203</v>
+        <v>6348.879048737901</v>
       </c>
       <c r="R6">
-        <v>5554.9233600203</v>
+        <v>57139.91143864112</v>
       </c>
       <c r="S6">
-        <v>0.03068004494547856</v>
+        <v>0.03127110270817986</v>
       </c>
       <c r="T6">
-        <v>0.03068004494547856</v>
+        <v>0.03127110270817986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>10498.41098970488</v>
+        <v>12639.06897671708</v>
       </c>
       <c r="R7">
-        <v>10498.41098970488</v>
+        <v>113751.6207904537</v>
       </c>
       <c r="S7">
-        <v>0.057983107982803</v>
+        <v>0.06225313493493927</v>
       </c>
       <c r="T7">
-        <v>0.057983107982803</v>
+        <v>0.06225313493493927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>16392.23295132926</v>
+        <v>21579.65746415258</v>
       </c>
       <c r="R8">
-        <v>16392.23295132926</v>
+        <v>194216.9171773732</v>
       </c>
       <c r="S8">
-        <v>0.09053490230362039</v>
+        <v>0.1062895795916924</v>
       </c>
       <c r="T8">
-        <v>0.09053490230362039</v>
+        <v>0.1062895795916924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>32522.27149908085</v>
+        <v>33152.90779264078</v>
       </c>
       <c r="R9">
-        <v>32522.27149908085</v>
+        <v>298376.1701337671</v>
       </c>
       <c r="S9">
-        <v>0.1796216953238416</v>
+        <v>0.1632930753129686</v>
       </c>
       <c r="T9">
-        <v>0.1796216953238416</v>
+        <v>0.1632930753129686</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>15267.8732391997</v>
+        <v>16566.27623399832</v>
       </c>
       <c r="R10">
-        <v>15267.8732391997</v>
+        <v>149096.4861059849</v>
       </c>
       <c r="S10">
-        <v>0.08432502247858274</v>
+        <v>0.0815964080633137</v>
       </c>
       <c r="T10">
-        <v>0.08432502247858274</v>
+        <v>0.0815964080633137</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>17136.90279114804</v>
+        <v>17388.06472337912</v>
       </c>
       <c r="R11">
-        <v>17136.90279114804</v>
+        <v>156492.5825104121</v>
       </c>
       <c r="S11">
-        <v>0.09464774107284854</v>
+        <v>0.08564408830080937</v>
       </c>
       <c r="T11">
-        <v>0.09464774107284854</v>
+        <v>0.08564408830080938</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>12796.98285632219</v>
+        <v>13245.30635375888</v>
       </c>
       <c r="R12">
-        <v>12796.98285632219</v>
+        <v>119207.7571838299</v>
       </c>
       <c r="S12">
-        <v>0.07067820449588501</v>
+        <v>0.06523912838944999</v>
       </c>
       <c r="T12">
-        <v>0.07067820449588501</v>
+        <v>0.06523912838945001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>24185.38956285203</v>
+        <v>26368.1729227755</v>
       </c>
       <c r="R13">
-        <v>24185.38956285203</v>
+        <v>237313.5563049795</v>
       </c>
       <c r="S13">
-        <v>0.1335767913834003</v>
+        <v>0.1298751854249098</v>
       </c>
       <c r="T13">
-        <v>0.1335767913834003</v>
+        <v>0.1298751854249098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>12.23162365467337</v>
+        <v>18.445017409368</v>
       </c>
       <c r="R14">
-        <v>12.23162365467337</v>
+        <v>166.005156684312</v>
       </c>
       <c r="S14">
-        <v>6.755570494138848E-05</v>
+        <v>9.085005863785893E-05</v>
       </c>
       <c r="T14">
-        <v>6.755570494138848E-05</v>
+        <v>9.085005863785894E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>24.26760201328207</v>
+        <v>28.337148651328</v>
       </c>
       <c r="R15">
-        <v>24.26760201328207</v>
+        <v>255.034337861952</v>
       </c>
       <c r="S15">
-        <v>0.0001340308537548859</v>
+        <v>0.0001395732820124827</v>
       </c>
       <c r="T15">
-        <v>0.0001340308537548859</v>
+        <v>0.0001395732820124828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>11.39264431048765</v>
+        <v>14.159875060672</v>
       </c>
       <c r="R16">
-        <v>11.39264431048765</v>
+        <v>127.438875546048</v>
       </c>
       <c r="S16">
-        <v>6.292199132920791E-05</v>
+        <v>6.974379318901849E-05</v>
       </c>
       <c r="T16">
-        <v>6.292199132920791E-05</v>
+        <v>6.974379318901849E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>12.78728445175291</v>
+        <v>14.86229135336</v>
       </c>
       <c r="R17">
-        <v>12.78728445175291</v>
+        <v>133.76062218024</v>
       </c>
       <c r="S17">
-        <v>7.062463985263066E-05</v>
+        <v>7.320351133200499E-05</v>
       </c>
       <c r="T17">
-        <v>7.062463985263066E-05</v>
+        <v>7.3203511332005E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>9.548905184460976</v>
+        <v>11.321306035248</v>
       </c>
       <c r="R18">
-        <v>9.548905184460976</v>
+        <v>101.891754317232</v>
       </c>
       <c r="S18">
-        <v>5.273895268256328E-05</v>
+        <v>5.576255605142683E-05</v>
       </c>
       <c r="T18">
-        <v>5.273895268256328E-05</v>
+        <v>5.576255605142684E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>18.04675323690311</v>
+        <v>22.53795776979999</v>
       </c>
       <c r="R19">
-        <v>18.04675323690311</v>
+        <v>202.8416199282</v>
       </c>
       <c r="S19">
-        <v>9.967287837183138E-05</v>
+        <v>0.0001110096423071946</v>
       </c>
       <c r="T19">
-        <v>9.967287837183138E-05</v>
+        <v>0.0001110096423071946</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>29.13230377764835</v>
+        <v>42.82125069645167</v>
       </c>
       <c r="R20">
-        <v>29.13230377764835</v>
+        <v>385.391256268065</v>
       </c>
       <c r="S20">
-        <v>0.0001608987795756592</v>
+        <v>0.0002109140398394663</v>
       </c>
       <c r="T20">
-        <v>0.0001608987795756592</v>
+        <v>0.0002109140398394663</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>57.79863522336953</v>
+        <v>65.78644625213776</v>
       </c>
       <c r="R21">
-        <v>57.79863522336953</v>
+        <v>592.0780162692399</v>
       </c>
       <c r="S21">
-        <v>0.0003192239769143849</v>
+        <v>0.0003240280216026024</v>
       </c>
       <c r="T21">
-        <v>0.0003192239769143849</v>
+        <v>0.0003240280216026024</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>27.13408981946692</v>
+        <v>32.87302724341778</v>
       </c>
       <c r="R22">
-        <v>27.13408981946692</v>
+        <v>295.85724519076</v>
       </c>
       <c r="S22">
-        <v>0.0001498625707795283</v>
+        <v>0.0001619145369389364</v>
       </c>
       <c r="T22">
-        <v>0.0001498625707795283</v>
+        <v>0.0001619145369389364</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>30.45573226064184</v>
+        <v>34.50373018583889</v>
       </c>
       <c r="R23">
-        <v>30.45573226064184</v>
+        <v>310.5335716725501</v>
       </c>
       <c r="S23">
-        <v>0.0001682081235051528</v>
+        <v>0.0001699464869583841</v>
       </c>
       <c r="T23">
-        <v>0.0001682081235051528</v>
+        <v>0.0001699464869583841</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>22.74281930440142</v>
+        <v>26.28311338434333</v>
       </c>
       <c r="R24">
-        <v>22.74281930440142</v>
+        <v>236.54802045909</v>
       </c>
       <c r="S24">
-        <v>0.000125609423069229</v>
+        <v>0.0001294562287016514</v>
       </c>
       <c r="T24">
-        <v>0.000125609423069229</v>
+        <v>0.0001294562287016515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>42.98231472293934</v>
+        <v>52.32326532565277</v>
       </c>
       <c r="R25">
-        <v>42.98231472293934</v>
+        <v>470.9093879308749</v>
       </c>
       <c r="S25">
-        <v>0.0002373928967321819</v>
+        <v>0.0002577157623362027</v>
       </c>
       <c r="T25">
-        <v>0.0002373928967321819</v>
+        <v>0.0002577157623362027</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H26">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>56.11935226885159</v>
+        <v>73.27620842940699</v>
       </c>
       <c r="R26">
-        <v>56.11935226885159</v>
+        <v>659.4858758646629</v>
       </c>
       <c r="S26">
-        <v>0.000309949235719648</v>
+        <v>0.0003609184900628239</v>
       </c>
       <c r="T26">
-        <v>0.000309949235719648</v>
+        <v>0.000360918490062824</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H27">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>111.341073315588</v>
+        <v>112.5745107627386</v>
       </c>
       <c r="R27">
-        <v>111.341073315588</v>
+        <v>1013.170596864648</v>
       </c>
       <c r="S27">
-        <v>0.0006149408213595196</v>
+        <v>0.0005544804147882623</v>
       </c>
       <c r="T27">
-        <v>0.0006149408213595196</v>
+        <v>0.0005544804147882624</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H28">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>52.27006956592447</v>
+        <v>56.25269595859466</v>
       </c>
       <c r="R28">
-        <v>52.27006956592447</v>
+        <v>506.2742636273519</v>
       </c>
       <c r="S28">
-        <v>0.0002886895065245317</v>
+        <v>0.0002770699865959673</v>
       </c>
       <c r="T28">
-        <v>0.0002886895065245317</v>
+        <v>0.0002770699865959673</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H29">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>58.66875412208663</v>
+        <v>59.04317327422333</v>
       </c>
       <c r="R29">
-        <v>58.66875412208663</v>
+        <v>531.38855946801</v>
       </c>
       <c r="S29">
-        <v>0.0003240296754254898</v>
+        <v>0.0002908143502973386</v>
       </c>
       <c r="T29">
-        <v>0.0003240296754254898</v>
+        <v>0.0002908143502973387</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H30">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>43.81089452698165</v>
+        <v>44.97596084190199</v>
       </c>
       <c r="R30">
-        <v>43.81089452698165</v>
+        <v>404.7836475771179</v>
       </c>
       <c r="S30">
-        <v>0.000241969173303681</v>
+        <v>0.0002215269624904544</v>
       </c>
       <c r="T30">
-        <v>0.000241969173303681</v>
+        <v>0.0002215269624904544</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H31">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>82.7994819660635</v>
+        <v>89.53616331499164</v>
       </c>
       <c r="R31">
-        <v>82.7994819660635</v>
+        <v>805.8254698349248</v>
       </c>
       <c r="S31">
-        <v>0.0004573045681357316</v>
+        <v>0.0004410061268494417</v>
       </c>
       <c r="T31">
-        <v>0.0004573045681357316</v>
+        <v>0.0004410061268494417</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H32">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>1482.924857879227</v>
+        <v>2090.419032420618</v>
       </c>
       <c r="R32">
-        <v>1482.924857879227</v>
+        <v>18813.77129178556</v>
       </c>
       <c r="S32">
-        <v>0.008190248243197336</v>
+        <v>0.010296259822268</v>
       </c>
       <c r="T32">
-        <v>0.008190248243197336</v>
+        <v>0.010296259822268</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H33">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>2942.130274983265</v>
+        <v>3211.518512049915</v>
       </c>
       <c r="R33">
-        <v>2942.130274983265</v>
+        <v>28903.66660844924</v>
       </c>
       <c r="S33">
-        <v>0.01624949314721237</v>
+        <v>0.01581818214972893</v>
       </c>
       <c r="T33">
-        <v>0.01624949314721237</v>
+        <v>0.01581818214972893</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H34">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>1381.209553364862</v>
+        <v>1604.773347001195</v>
       </c>
       <c r="R34">
-        <v>1381.209553364862</v>
+        <v>14442.96012301076</v>
       </c>
       <c r="S34">
-        <v>0.007628470895087829</v>
+        <v>0.007904235026717018</v>
       </c>
       <c r="T34">
-        <v>0.007628470895087829</v>
+        <v>0.007904235026717018</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H35">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>1550.291483259613</v>
+        <v>1684.379907099728</v>
       </c>
       <c r="R35">
-        <v>1550.291483259613</v>
+        <v>15159.41916389755</v>
       </c>
       <c r="S35">
-        <v>0.008562316579795936</v>
+        <v>0.008296333363758257</v>
       </c>
       <c r="T35">
-        <v>0.008562316579795936</v>
+        <v>0.008296333363758259</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H36">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>1157.680228181215</v>
+        <v>1283.071361912676</v>
       </c>
       <c r="R36">
-        <v>1157.680228181215</v>
+        <v>11547.64225721409</v>
       </c>
       <c r="S36">
-        <v>0.006393910254229277</v>
+        <v>0.006319707153386646</v>
       </c>
       <c r="T36">
-        <v>0.006393910254229277</v>
+        <v>0.006319707153386647</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H37">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>2187.933485738912</v>
+        <v>2554.28199541593</v>
       </c>
       <c r="R37">
-        <v>2187.933485738912</v>
+        <v>22988.53795874337</v>
       </c>
       <c r="S37">
-        <v>0.01208403668776127</v>
+        <v>0.01258099485139579</v>
       </c>
       <c r="T37">
-        <v>0.01208403668776127</v>
+        <v>0.01258099485139579</v>
       </c>
     </row>
   </sheetData>
